--- a/02_MasterWifoMannheim/99_Backup/Course137.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course137.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59D2BFD32051265F592811590908335749FEB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595CEC53-DDF9-474C-B1F9-05BFB3B22F8B}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 531 Marketing Theory</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Marketing begins and ends with the consumer - from understanding consumer preferences and needs to providing consumer satisfaction. Thus, a clear understanding of consumers is critical in successfully managing the marketing function in any organization. This module examines the nature of consumer behavior and consumer decision process. The effects of consumer behavior and decision making are discussed. Understanding consumers' behavior and the irrationality of the human decision-making process is key to developing winning marketing strategies for advertising, branding, pricing or promotions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students develop an understanding of important theories in marketing and its relevance within business administration. More precisely, they will be able to critically discuss and apply models and theories of consumer behavior, such as prospect theory and mental accounting. They will further know about the foundations of social psychology, including feeling-as-information theory, attachment theory, attribution theory of motivation, and cognitive dissonance theory. perception as well as on concepts of consumer learning, memory, motivation, and attitudes, which altogether imply on consumer decision processes. marketing theory, they will be able to assess various frameworks and tools in this regard, e.g., marketing mix strategies and market analysis as well as segmentation.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Stahl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring Semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MKT 530</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 531 Marketing Theory</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Marketing begins and ends with the consumer - from understanding consumer preferences and needs to providing consumer satisfaction. Thus, a clear understanding of consumers is critical in successfully managing the marketing function in any organization. This module examines the nature of consumer behavior and consumer decision process. The effects of consumer behavior and decision making are discussed. Understanding consumers' behavior and the irrationality of the human decision-making process is key to developing winning marketing strategies for advertising, branding, pricing or promotions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students develop an understanding of important theories in marketing and its relevance within business administration. More precisely, they will be able to critically discuss and apply models and theories of consumer behavior, such as prospect theory and mental accounting. They will further know about the foundations of social psychology, including feeling-as-information theory, attachment theory, attribution theory of motivation, and cognitive dissonance theory. perception as well as on concepts of consumer learning, memory, motivation, and attitudes, which altogether imply on consumer decision processes. marketing theory, they will be able to assess various frameworks and tools in this regard, e.g., marketing mix strategies and market analysis as well as segmentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MKT 530</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
